--- a/IT_passport_quiz.xlsx
+++ b/IT_passport_quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/ITパスポート/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/quiz_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC9F618-A094-4F87-9D5B-4F1DB7E9CF80}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD5AC56-9802-4FB3-B2CF-EA3FC78A60C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -193,10 +193,6 @@
     <rPh sb="6" eb="8">
       <t>センニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2779,10 +2775,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3088,7 +3080,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3104,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -3137,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3162,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
@@ -3176,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -3205,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3216,10 +3208,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3230,19 +3222,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3253,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3267,13 +3259,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3284,13 +3276,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3301,10 +3293,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.45">
@@ -3315,13 +3307,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.45">
@@ -3332,13 +3324,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -3349,10 +3341,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.45">
@@ -3363,13 +3355,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3380,16 +3372,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.45">
@@ -3400,13 +3392,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="144" x14ac:dyDescent="0.45">
@@ -3417,13 +3409,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3434,13 +3426,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.45">
@@ -3451,13 +3443,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3468,10 +3460,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3482,16 +3474,16 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3502,13 +3494,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3519,13 +3511,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3536,16 +3528,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3556,10 +3548,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3570,10 +3562,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3584,13 +3576,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3601,13 +3593,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3618,22 +3610,22 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3644,13 +3636,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.45">
@@ -3661,13 +3653,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3678,10 +3670,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.45">
@@ -3692,13 +3684,13 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.45">
@@ -3709,10 +3701,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3723,10 +3715,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3737,10 +3729,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3751,10 +3743,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3765,10 +3757,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3779,10 +3771,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3793,10 +3785,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3807,25 +3799,25 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -3836,25 +3828,25 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -3865,25 +3857,25 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.45">
@@ -3894,19 +3886,19 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="252" x14ac:dyDescent="0.45">
@@ -3917,25 +3909,25 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="252" x14ac:dyDescent="0.45">
@@ -3946,25 +3938,25 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="252" x14ac:dyDescent="0.45">
@@ -3975,25 +3967,25 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="252" x14ac:dyDescent="0.45">
@@ -4004,25 +3996,25 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="54" x14ac:dyDescent="0.45">
@@ -4033,13 +4025,13 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.45">
@@ -4050,10 +4042,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/IT_passport_quiz.xlsx
+++ b/IT_passport_quiz.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/quiz_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD5AC56-9802-4FB3-B2CF-EA3FC78A60C1}"/>
+  <xr:revisionPtr revIDLastSave="365" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB8CEDE-ED52-49BE-BDD1-009DD75E764D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
+    <workbookView xWindow="36" yWindow="96" windowWidth="10536" windowHeight="12348" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="177">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -2696,6 +2696,577 @@
     </rPh>
     <rPh sb="23" eb="26">
       <t>トウシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダーが部下に対して指示や命令をするのではなく、部下の働きやすさを考慮して奉仕するような、部下を中心とした組織運営を（　　　　　）という。</t>
+    <rPh sb="5" eb="7">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>ソシキウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバントリーダーシップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業や業界同士がお互いに協力することで構築された、それぞれの業務やサービスを補って大きな利益を生み出す収益環境のこと（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ギョウカイドウシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オギナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>シュウエキカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エコシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※エコシステムはもともと生態系を意味する英単語。生物が互いに影響し合い全体のバランスをとって循環している自然界の仕組みをビジネスの世界に当てはめている。</t>
+    <rPh sb="12" eb="15">
+      <t>セイタイケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>エイタンゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイブツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジュンカン</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>シゼンカイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織が業務の一部または全部を外部業者へ委託することを（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウトソーシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Business Process Outsourcing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社の業務処理の一部を外部の事業者に任せる経営手法を（　　　　　）という。
+※アウトソーシングの中でも業務プロセスを委託することを指す。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ギョウムショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ジギョウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケイエイシュホウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット　上で不特定多数の人に対して、業務内容と報酬を提示し、業務を委託するビジネス形態を（　　　　　）という。</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>フトクテイタスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ギョウムナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドソーシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Cloud（大衆）とアウトソーシングの造語。</t>
+    <rPh sb="7" eb="9">
+      <t>タイシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゾウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子商取引の商品と代金の受け渡しにおいて、売り手と買い手の間に信頼のおける第三者が介在することによって、取引の安全性を高めるサービスを（　　　　　）という。</t>
+    <rPh sb="0" eb="5">
+      <t>デンシショウトリヒキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイザイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスクローサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社に不足している機能を企業買収などによって他社から取り込み、事業展開を早めることを（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キギョウバイシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ジギョウテンカイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M＆A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Mergers and Acquisitions（合併と買収）</t>
+    <rPh sb="26" eb="28">
+      <t>ガッペイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営者が自社の株式の大半を買い取ることで経営権を取得することを（　　　　　　）といい、事業の再編などに用いられる。</t>
+    <rPh sb="0" eb="3">
+      <t>ケイエイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイハン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ケイエイケン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイヘン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Management BuyOut
+（経営陣による自社買収）</t>
+    <rPh sb="20" eb="23">
+      <t>ケイエイジン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジシャバイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社の従業員が、その会社の事業を買収したり、自社株式を買い取ったりすることで、経営権の取得することを（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バイシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジシャカブシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ケイエイケン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Employee BuyOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本部が契約した加盟店に対して、経営権や商標の使用権、出店や運営のノウハウを提供し、その見返りとして加盟店からロイヤリティを徴収するという関係の小売り形態を（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイエイケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シヨウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ミカエ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>チョウシュウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランチャイズチェーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の企業が、研究開発を共同で行って新しい事業を展開するために、共同出資によって会社を組織する形態を（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ケンキュウカイハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>キョウドウシュッシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイントベンチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合弁企業</t>
+    <rPh sb="0" eb="4">
+      <t>ゴウベンキギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_big</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_small</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストラテジ系</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業活動</t>
+    <rPh sb="0" eb="4">
+      <t>キギョウカツドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2775,6 +3346,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3074,27 +3649,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F6A153-5CD5-4C43-8A40-DCC2DF8EA836}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.19921875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="13.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.296875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="4" width="6.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.19921875" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" style="1" customWidth="1"/>
+    <col min="11" max="14" width="13.296875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3102,37 +3678,43 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3140,13 +3722,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3154,13 +3742,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3168,13 +3762,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3182,25 +3782,31 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3208,13 +3814,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3222,22 +3834,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3245,13 +3863,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3259,16 +3883,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3276,16 +3906,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3293,13 +3929,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3307,16 +3949,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3324,16 +3972,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3341,13 +3995,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3355,16 +4015,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3372,19 +4038,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3392,16 +4064,22 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="144" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="144" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3409,16 +4087,22 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3426,16 +4110,22 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3443,16 +4133,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3460,13 +4156,19 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3474,19 +4176,25 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3494,16 +4202,22 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3511,16 +4225,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3528,19 +4248,25 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3548,13 +4274,19 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3562,13 +4294,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3576,16 +4314,22 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3593,16 +4337,22 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3610,25 +4360,31 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3636,16 +4392,22 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3653,16 +4415,22 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3670,13 +4438,19 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3684,16 +4458,22 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="72" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3701,13 +4481,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3715,13 +4501,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3729,13 +4521,19 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3743,13 +4541,19 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3757,13 +4561,19 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3771,13 +4581,19 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3785,13 +4601,19 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3799,28 +4621,34 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3828,28 +4656,34 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3857,28 +4691,34 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="I44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="144" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="144" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3886,22 +4726,28 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="252" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="252" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3909,28 +4755,34 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="252" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="252" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3938,28 +4790,34 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="252" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="252" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3967,28 +4825,34 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="I48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="252" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="252" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3996,28 +4860,34 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4025,16 +4895,22 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4042,14 +4918,356 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="52" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="198" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="90" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L51" xr:uid="{95F6A153-5CD5-4C43-8A40-DCC2DF8EA836}"/>
+  <autoFilter ref="A1:N51" xr:uid="{95F6A153-5CD5-4C43-8A40-DCC2DF8EA836}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IT_passport_quiz.xlsx
+++ b/IT_passport_quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/quiz_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="365" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB8CEDE-ED52-49BE-BDD1-009DD75E764D}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3206C259-1346-4A72-BFB9-1C98DD82E97F}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="96" windowWidth="10536" windowHeight="12348" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
   </bookViews>
@@ -3253,10 +3253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>group_small</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストラテジ系</t>
     <rPh sb="5" eb="6">
       <t>ケイ</t>
@@ -3268,6 +3264,10 @@
     <rPh sb="0" eb="4">
       <t>キギョウカツドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_middle</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3655,7 +3655,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="C1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3681,7 +3681,7 @@
         <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3722,10 +3722,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -3742,10 +3742,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>144</v>
@@ -3762,10 +3762,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -3782,10 +3782,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3814,10 +3814,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -3834,10 +3834,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -3863,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -3883,10 +3883,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
@@ -3929,10 +3929,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -3949,10 +3949,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
@@ -3972,10 +3972,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -3995,10 +3995,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -4015,10 +4015,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
@@ -4038,10 +4038,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>41</v>
@@ -4064,10 +4064,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
@@ -4087,10 +4087,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -4110,10 +4110,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -4133,10 +4133,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>47</v>
@@ -4156,10 +4156,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>48</v>
@@ -4176,10 +4176,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>50</v>
@@ -4202,10 +4202,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
@@ -4225,10 +4225,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>52</v>
@@ -4248,10 +4248,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
@@ -4274,10 +4274,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
@@ -4294,10 +4294,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>56</v>
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>58</v>
@@ -4337,10 +4337,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -4360,10 +4360,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -4392,10 +4392,10 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -4415,10 +4415,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -4438,10 +4438,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>67</v>
@@ -4458,10 +4458,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>69</v>
@@ -4481,10 +4481,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>103</v>
@@ -4501,10 +4501,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -4521,10 +4521,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
@@ -4541,10 +4541,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>74</v>
@@ -4561,10 +4561,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>76</v>
@@ -4581,10 +4581,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>78</v>
@@ -4601,10 +4601,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>80</v>
@@ -4621,10 +4621,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>82</v>
@@ -4656,10 +4656,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>120</v>
@@ -4691,10 +4691,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>122</v>
@@ -4726,10 +4726,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>124</v>
@@ -4755,10 +4755,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>131</v>
@@ -4790,10 +4790,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>132</v>
@@ -4825,10 +4825,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>134</v>
@@ -4860,10 +4860,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>136</v>
@@ -4895,10 +4895,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>139</v>
@@ -4918,10 +4918,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>142</v>
@@ -4938,10 +4938,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>145</v>
@@ -4958,10 +4958,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>147</v>
@@ -4981,10 +4981,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>150</v>
@@ -5001,10 +5001,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>154</v>
@@ -5024,10 +5024,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>155</v>
@@ -5047,10 +5047,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>158</v>
@@ -5067,10 +5067,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>160</v>
@@ -5090,10 +5090,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>163</v>
@@ -5113,10 +5113,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>165</v>
@@ -5136,10 +5136,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>168</v>
@@ -5156,10 +5156,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>170</v>

--- a/IT_passport_quiz.xlsx
+++ b/IT_passport_quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/quiz_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owara\OneDrive\デスクトップ\quiz_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3206C259-1346-4A72-BFB9-1C98DD82E97F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660760A-04D8-4547-AC90-10C803EBE144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="96" windowWidth="10536" windowHeight="12348" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="275">
   <si>
     <t>question</t>
     <phoneticPr fontId="1"/>
@@ -2865,44 +2865,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自社の業務処理の一部を外部の事業者に任せる経営手法を（　　　　　）という。
-※アウトソーシングの中でも業務プロセスを委託することを指す。</t>
-    <rPh sb="0" eb="2">
-      <t>ジシャ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ギョウムショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジギョウシャ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マカ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ケイエイシュホウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>イタク</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インターネット　上で不特定多数の人に対して、業務内容と報酬を提示し、業務を委託するビジネス形態を（　　　　　）という。</t>
     <rPh sb="8" eb="9">
       <t>ジョウ</t>
@@ -3142,58 +3104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本部が契約した加盟店に対して、経営権や商標の使用権、出店や運営のノウハウを提供し、その見返りとして加盟店からロイヤリティを徴収するという関係の小売り形態を（　　　　　）という。</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カメイテン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ケイエイケン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウヒョウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>シヨウケン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュッテン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ウンエイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ミカエ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>カメイテン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>チョウシュウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ケイタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フランチャイズチェーン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3268,6 +3178,2462 @@
   </si>
   <si>
     <t>group_middle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術提携や生産・販売の委託、合併会社の設立など、複数の企業が互いの独自性を維持しながら連携することを（　　　　　）という。</t>
+    <rPh sb="0" eb="4">
+      <t>ギジュツテイケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガッペイカイシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ドクジセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライアンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※企業同士で連携することお</t>
+    <rPh sb="1" eb="5">
+      <t>キギョウドウシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その企業にとって中核でない業務を外部の専門業者に委託することで、企業は本来の業務に人員をシフトすることができた。この事例は、アライアンスの効果である。（〇か×か）</t>
+    <rPh sb="2" eb="4">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウカク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>センモンギョウシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※アライアンスは共同で事業を行って互いに利益を得ようとすること。設問の事例は外部に業務を発注する「アウトソーシング」の事例。</t>
+    <rPh sb="8" eb="10">
+      <t>キョウドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツモン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライアンスを締結することで、自社が保有していない技術やノウハウを、他社から短期間で補完することができる。（〇か×か）</t>
+    <rPh sb="7" eb="9">
+      <t>テイケツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>タンキカン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業が他の企業の経営資源を活用する手法として、企業買収や企業提携がある。企業買収と比較したときの企業提携の一般的なデメリットとして適切なものを選べ。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケイエイシゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>キギョウバイシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キギョウテイケイ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>キギョウバイシュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>キギョウテイケイ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a　相手企業の組織や業務プロセスの改革が必要となる。</t>
+    <rPh sb="2" eb="6">
+      <t>アイテキギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b　経営資源の活用に関する相手企業の意思決定への関与が限定的である。</t>
+    <rPh sb="2" eb="6">
+      <t>ケイエイシゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>アイテキギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>イシケッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンヨ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ゲンテイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c　必要な投資が大きく、財務状況への影響が発生する。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ザイムジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※各社が独立性を保ちながら協力するので、結びつきが限定的で口出しするのが難しい。</t>
+    <rPh sb="1" eb="3">
+      <t>カクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ゲンテイテキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>クチダ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a　あるアパレルメーカーは工場の検品作業を関連会社に委託した。</t>
+    <rPh sb="13" eb="15">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ケンピンサギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カンレンカイシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b　ある大手商社は海外から買い付けた商品の販売拡大を目的に、大手小売店を子会社とした。</t>
+    <rPh sb="4" eb="8">
+      <t>オオテショウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ハンバイカクダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="30" eb="35">
+      <t>オオテコウリテン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>コカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c　ある銀行は規模の拡大を目的に、M&amp;Aによって同業の銀行を買収した。</t>
+    <rPh sb="4" eb="6">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同業で同種の商品を生産している他社と合併し市場競争力を高める経営戦略は（　　　　　）である。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガッペイ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>シジョウキョウソウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ケイエイセンリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平統合</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の事業展開における垂直統合の事例として、適切なものを選べ。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジギョウテンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※垂直統合とは、一つの企業が開発から生産、販売まで統合して行うこと。</t>
+    <rPh sb="1" eb="3">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業が経営成績を算出するために設ける、期初（期首）から期末までの区切りを（　　　　　）といい、企業によって何月開始かは異なる。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイエイセイセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ナンガツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計決算</t>
+    <rPh sb="0" eb="4">
+      <t>カイケイケッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※原則１年間とされる。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業は、期初に立てた計画に対して、売上高や利益がどうだったのか、期末の（　　　　　）により結果を評価する。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ウリアゲタカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※決算期の月の最後の日を決算日という。</t>
+    <rPh sb="1" eb="4">
+      <t>ケッサンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケッサンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社の経営を分析したり、今後の事業方針を決定したりするためにまとめる社内向けの会計形式を（　　　　　）という。
+解説≫経営者や管理者が、企業内部の重要な判断をする材料として会計情報を管理する際に利用する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ジギョウホウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>シャナイム</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>カイケイケイシキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ケイエイシャ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>キギョウナイブ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="87" eb="91">
+      <t>カイケイジョウホウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理会計</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の経営情報を投資家、銀行、取引先など、外部の利害関係者に提供するための会計方式を（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイエイジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トウシカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>トリヒキサキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="24" eb="29">
+      <t>リガイカンケイシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>カイケイホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財務会計</t>
+    <rPh sb="0" eb="4">
+      <t>ザイムカイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部門、製品、地域別の予算統制、利益管理、業務評価など、経営判断のための内部報告書を作成するのは、（　　　　　）会計である。</t>
+    <rPh sb="0" eb="2">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チイキベツ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヨサントウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>リエキカンリ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ギョウムヒョウカ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ケイエイハンダン</t>
+    </rPh>
+    <rPh sb="35" eb="40">
+      <t>ナイブホウコクショ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※管理会計</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算では、会計期間で何にいくら使い、どのくらい売上高・利益があったのか、いくら納税するのか等の情報を（　　　　　）表として公開する。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイケイキカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ノウゼイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財務諸</t>
+    <rPh sb="0" eb="3">
+      <t>ザイムショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※財務諸表</t>
+    <rPh sb="1" eb="5">
+      <t>ザイムショヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財務会計では、会計監査が企業の財務諸表の正しさを確認し、企業は（　　　　　）に向けて決算情報を報告する。</t>
+    <rPh sb="0" eb="4">
+      <t>ザイムカイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイケイカンサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ザイムショヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ケッサンジョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステークホルダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※企業の活動に対して直接的・間接的な利害関係を持つグループや個人のこと。</t>
+    <rPh sb="1" eb="3">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>チョクセツテキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンセツテキ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>リガイカンケイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財務</t>
+    <rPh sb="0" eb="2">
+      <t>ザイム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本部が契約した加盟店に対して、経営権や商標の使用権、出店や運営のノウハウを提供し、その見返りとして加盟店からロイヤリティを徴収するという関係の小売り形態を（　　　　　）という。
+解説≫ロイヤリティは権利の使用料。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイエイケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シヨウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッテン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ミカエ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>チョウシュウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケンリ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自社の業務処理の一部を外部の事業者に任せる経営手法を（　　　　　）という。
+解説≫アウトソーシングの中でも業務プロセスを委託することを指す。</t>
+    <rPh sb="0" eb="2">
+      <t>ジシャ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ギョウムショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ジギョウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ケイエイシュホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税務当局</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の経済活動によって生じた、資本（事業活動の元となる資金）の増加分を（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ジギョウカツドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ゾウカブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上金</t>
+    <rPh sb="0" eb="3">
+      <t>ウリアゲキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業が経済活動を行うために支払った金額は（　　　　　）である。
+解説≫費用のうち、商品や製品に直接結びついて把握できるものを原価という。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイザイカツドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益のうち、商品やサービスを販売して得た金額は（　　　　　）である。
+解説≫収益の中心が売上である会社は多く、企業によっては収益と売上がほぼ同じ意味となることもある。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益から費用を差し引いた、儲けの金額は（　　　　　）である。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利益</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の一会計期間における経営成績を表示した財務諸表（　　　　　）という。
+解説≫経営成績を「収益」、「費用」、「利益」などに分類して判断する書類。グループ会社をもつ大企業はそれぞれの業績を足し合わせた連結損益計算書を作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>イチカイケイキカン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケイエイセイセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ザイムショヒョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ケイエイセイセキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ダイキギョウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ギョウセキ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="103" eb="108">
+      <t>ソンエキケイサンショ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損益計算書</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイサンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Profit ＆ Loss Statement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計期間中に、企業が商品やサービスの販売を通じて得た売上の総額を（　　　　　）という。</t>
+    <rPh sb="0" eb="5">
+      <t>カイケイキカンチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高</t>
+    <rPh sb="0" eb="3">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売目的で商品や原材料を購入することを仕入れといい、会計期間中に行われた仕入れにより生じた金額を集計したものを（　　　　　）という。</t>
+    <rPh sb="0" eb="4">
+      <t>ハンバイモクテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゲンザイリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>カイケイキカンチュウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入高</t>
+    <rPh sb="0" eb="3">
+      <t>シイレダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末時点で売れ残っている商品や製品などの在庫金額を（　　　　　）という。
+解説≫期末に商品や原材料等の在庫の数量を確認し、会計上の資産金額を確定させる目的で行われる作業を棚卸しという。</t>
+    <rPh sb="0" eb="4">
+      <t>キマツジテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ザイコキンガク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ゲンザイリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>カイケイジョウ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>シサンキンガク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タナオロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末商品棚卸高</t>
+    <rPh sb="0" eb="4">
+      <t>キマツショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オロシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期末製品棚卸高</t>
+    <rPh sb="0" eb="2">
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タナオロシダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期首の時点で、資産として前期から繰り越されて在庫として残っている商品や製品などの在庫金額を（　　　　　）という。</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ザイコキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期首商品棚卸高</t>
+    <rPh sb="0" eb="4">
+      <t>キシュショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナオロシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期首製品棚卸高</t>
+    <rPh sb="0" eb="7">
+      <t>キシュセイヒンタナオロシダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品やサービスを製造するためにかかった費用を（　　　　　）原価という。
+解説≫原材料費、労務費（従業員の賃金など）、経費の3つが製造原価に含まれる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ゲンザイリョウヒ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ロウムヒ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>チンギン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>セイゾウゲンカ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計期間中に売れた商品の仕入れや製造にかかった費用を（　　　　　　）原価という。</t>
+    <rPh sb="0" eb="5">
+      <t>カイケイキカンチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※総原価のうち、売れた分の費用が売上原価となる</t>
+    <rPh sb="1" eb="4">
+      <t>ソウゲンカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上原価は、期首商品棚卸高と（　　　　　）を合計し、期末商品棚卸高を差し引いて求められる。
+解説≫計算式で表すと、（売上原価）＝（期首商品棚卸高）+（当期仕入高）-（期末商品棚卸高）となる</t>
+    <rPh sb="0" eb="4">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="6" eb="13">
+      <t>キシュショウヒンタナオロシダカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="26" eb="33">
+      <t>キマツショウヒンタナオロシダカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>タナオロシダカ</t>
+    </rPh>
+    <rPh sb="76" eb="81">
+      <t>トウキシイレダカ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>キマツショウヒン</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>タナオロシダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当期仕入高</t>
+    <rPh sb="0" eb="5">
+      <t>トウキシイレダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造原価</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※当期に仕入れた商品の原価のこと。</t>
+    <rPh sb="1" eb="3">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A社は製品Bの製造および販売を行っている。このとい、製品Bの総原価が計算できる方法を選べ。なおここでの総原価は製品Bの販売までに要した全ての原価を指す。</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ソウゲンカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ソウゲンカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a　（製品Bの売上高）-（製品Bの営業費）</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>エイギョウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b　（製品Bの売上高）-（製品Bの製造原価）</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>セイゾウゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c　（製品Bの製造原価）+（製品Bの営業費）</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セイゾウゲンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>エイギョウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d　（製品Bの創造原価）+（製品Bの営業利益）</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ソウゾウゲンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※営業費とは、製品の販売活動、及び管理業務にかかる費用を指す。商品の総原価は製造原価と営業費で構成される。</t>
+    <rPh sb="1" eb="3">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ハンバイカツドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>カンリギョウム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>セイゾウゲンカ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>エイギョウヒ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（売上高）-（売上原価）という計算式で求められるのは（　　　　　）である。
+解説≫商品によってどの程度稼ぐことができたかを示す。</t>
+    <rPh sb="1" eb="4">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>テイドカセ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上総利益</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粗利益</t>
+    <rPh sb="0" eb="3">
+      <t>アラリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業利益</t>
+    <rPh sb="0" eb="4">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（売上総利益）-（販売費および一般管理費）という計算式で求められる利益は（　　　　　）である。
+解説≫企業が本業で稼いだ利益を示す。</t>
+    <rPh sb="1" eb="3">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ソウリエキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリヒ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ホンギョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（営業利益）+（営業外収益）-（営業外費用）という計算式で求められる利益は（　　　　　）である。
+解説≫企業が通常行っている全業務の中で得た利益を指す。</t>
+    <rPh sb="1" eb="5">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>エイギョウガイシュウエキ</t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t>エイギョウガイヒヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ツウジョウオコナ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ゼンギョウム</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経常利益</t>
+    <rPh sb="0" eb="4">
+      <t>ケイジョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（経営利益）+（特別利益）-（特別損失）という計算式で求められるのは（　　　　　）である。
+解説≫税金を支払う前の特別損益を加味した利益を示す。</t>
+    <rPh sb="1" eb="5">
+      <t>ケイエイリエキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>トクベツリエキ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トクベツソンシツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ゼイキン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>トクベツソンエキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税引前当期純利益</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイビ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（税引前当期純利益））-（法人税、住民税及び事業税）という計算式で求められるのは（　　　　　）である。
+解説≫売上高から全ての費用を差し引いた利益を示す。</t>
+    <rPh sb="1" eb="4">
+      <t>ゼイビキマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ホウジンゼイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ジュウミンゼイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジギョウゼイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当期純利益</t>
+    <rPh sb="0" eb="2">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位：億
+売上高　　　　　　　　　　100
+売上原価　　　　　　　　　75
+売上総利益（粗利益）　　　25
+販売費及び一般管理費　　　10
+営業利益　　　　　　　　　15
+営業外収益　　　　　　　　3
+営業外費用　　　　　　　　7
+（A）　 　　　　　　　　　11
+特別損失　　　　　　　　　2
+税引前当期純利益　　　　　9
+法人税・住民税及び事業税　3
+当期純利益　　　　　　　　6</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ソウリエキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アラリエキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="60" eb="65">
+      <t>イッパンカンリヒ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位：億
+売上高　　　　　　　　　　100
+売上原価　　　　　　　　　75
+売上総利益（粗利益）　　　25
+販売費及び一般管理費　　　10
+（A）　 　　　　　　　　　15
+営業外収益　　　　　　　　3
+営業外費用　　　　　　　　7
+経常利益　　　　　　　　　11
+特別損失　　　　　　　　　2
+税引前当期純利益　　　　　9
+法人税・住民税及び事業税　3
+当期純利益　　　　　　　　6</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ソウリエキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アラリエキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="60" eb="65">
+      <t>イッパンカンリヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位：億
+売上高　　　　　　　　　　100
+売上原価　　　　　　　　　75
+（A）　　　　　　　　　　 25
+販売費及び一般管理費　　　10
+営業利益　　　　　　　　　15
+営業外収益　　　　　　　　3
+営業外費用　　　　　　　　7
+経常利益　　　　　　　　　11
+特別損失　　　　　　　　　2
+税引前当期純利益　　　　　9
+法人税・住民税及び事業税　3
+当期純利益　　　　　　　　6</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="61" eb="66">
+      <t>イッパンカンリヒ</t>
+    </rPh>
+    <rPh sb="72" eb="76">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位：億
+売上高　　　　　　　　　　100
+売上原価　　　　　　　　　75
+売上総利益（粗利益）　　　25
+販売費及び一般管理費　　　10
+営業利益　　　　　　　　　15
+営業外収益　　　　　　　　3
+営業外費用　　　　　　　　7
+経常利益　　　　　　　　　11
+特別損失　　　　　　　　　2
+（A）　　　　　 　　　　　9
+法人税・住民税及び事業税　3
+当期純利益　　　　　　　　6</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ソウリエキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アラリエキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="60" eb="65">
+      <t>イッパンカンリヒ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税引前当期純利益</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイビキマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュンリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位：億
+売上高　　　　　　　　　　100
+売上原価　　　　　　　　　75
+売上総利益（粗利益）　　　25
+販売費及び一般管理費　　　10
+営業利益　　　　　　　　　15
+営業外収益　　　　　　　　3
+営業外費用　　　　　　　　7
+経常利益　　　　　　　　　11
+特別損失　　　　　　　　　2
+税引前当期純利益　　　　　9
+法人税・住民税及び事業税　3
+（A）　　 　　　　　　　　6</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ソウリエキ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>アラリエキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="60" eb="65">
+      <t>イッパンカンリヒ</t>
+    </rPh>
+    <rPh sb="71" eb="75">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の当期末損益計算資料から求められる経常利益は（　　　　　）百万円である。
+単位：百万円
+売上高　　　　　　　　　　3,000
+売上原価　　　　　　　　　1,500
+販売費及び一般管理　　　　500
+営業外費用　　　　　　　　15
+特別損失　　　　　　　　　300
+法人税　　　　　　　　　　300
+解き方≫売上総利益、営業利益、経常利益の順に計算する。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="11">
+      <t>トウキマツソンエキケイサンシリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ケイジョウリエキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヒャクマンエン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ヒャクマンエン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ハンバイヒ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="90" eb="94">
+      <t>イッパンカンリ</t>
+    </rPh>
+    <rPh sb="102" eb="107">
+      <t>エイギョウガイヒヨウ</t>
+    </rPh>
+    <rPh sb="118" eb="122">
+      <t>トクベツソンシツ</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>ホウジンゼイ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="157" eb="162">
+      <t>ウリアゲソウリエキ</t>
+    </rPh>
+    <rPh sb="163" eb="167">
+      <t>エイギョウリエキ</t>
+    </rPh>
+    <rPh sb="168" eb="172">
+      <t>ケイジョウリエキ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ケイサン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3346,10 +5712,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3649,13 +6011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F6A153-5CD5-4C43-8A40-DCC2DF8EA836}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="C1:D58"/>
+      <selection pane="bottomRight" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3678,10 +6040,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3722,10 +6084,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -3742,10 +6104,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>144</v>
@@ -3762,10 +6124,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -3782,10 +6144,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -3814,10 +6176,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -3834,10 +6196,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -3863,10 +6225,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -3883,10 +6245,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -3906,10 +6268,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
@@ -3929,10 +6291,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -3949,10 +6311,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
@@ -3972,10 +6334,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -3995,10 +6357,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -4015,10 +6377,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
@@ -4038,10 +6400,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>41</v>
@@ -4064,10 +6426,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
@@ -4087,10 +6449,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>43</v>
@@ -4110,10 +6472,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -4133,10 +6495,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>47</v>
@@ -4156,10 +6518,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>48</v>
@@ -4176,10 +6538,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>50</v>
@@ -4202,10 +6564,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>51</v>
@@ -4225,10 +6587,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>52</v>
@@ -4248,10 +6610,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
@@ -4274,10 +6636,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
@@ -4294,10 +6656,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>56</v>
@@ -4314,10 +6676,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>58</v>
@@ -4337,10 +6699,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -4360,10 +6722,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -4392,10 +6754,10 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -4415,10 +6777,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -4438,10 +6800,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>67</v>
@@ -4458,10 +6820,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>69</v>
@@ -4481,10 +6843,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>103</v>
@@ -4501,10 +6863,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>70</v>
@@ -4521,10 +6883,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
@@ -4541,10 +6903,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>74</v>
@@ -4561,10 +6923,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>76</v>
@@ -4581,10 +6943,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>78</v>
@@ -4601,10 +6963,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>80</v>
@@ -4621,10 +6983,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>82</v>
@@ -4656,10 +7018,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>120</v>
@@ -4691,10 +7053,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>122</v>
@@ -4726,10 +7088,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>124</v>
@@ -4755,10 +7117,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>131</v>
@@ -4790,10 +7152,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>132</v>
@@ -4825,10 +7187,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>134</v>
@@ -4860,10 +7222,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>136</v>
@@ -4895,10 +7257,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>139</v>
@@ -4918,10 +7280,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>142</v>
@@ -4938,10 +7300,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>145</v>
@@ -4958,10 +7320,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>147</v>
@@ -4981,10 +7343,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>150</v>
@@ -4993,7 +7355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5001,13 +7363,13 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>152</v>
@@ -5024,19 +7386,19 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="54" x14ac:dyDescent="0.45">
@@ -5047,16 +7409,16 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="54" x14ac:dyDescent="0.45">
@@ -5067,19 +7429,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="90" x14ac:dyDescent="0.45">
@@ -5090,19 +7452,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -5113,22 +7475,22 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5136,16 +7498,16 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="36" x14ac:dyDescent="0.45">
@@ -5156,114 +7518,895 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="162" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="108" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="126" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="108" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="54" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="90" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="90" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="144" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="252" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="252" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="252" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="252" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="252" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="234" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J99" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
